--- a/medicine/Enfance/Le_Manoir_(série_fantastique)/Le_Manoir_(série_fantastique).xlsx
+++ b/medicine/Enfance/Le_Manoir_(série_fantastique)/Le_Manoir_(série_fantastique).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Le_Manoir_(s%C3%A9rie_fantastique)</t>
+          <t>Le_Manoir_(série_fantastique)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Manoir est une série de livres écrits par Évelyne Brisou-Pellen. Elle est suivie par la série Le Manoir - L'Exil dont la parution a débuté en 2016.
-Le premier tome de la série a obtenu le prix Gulli du roman 2013[1] ainsi que le prix des Incorruptibles 2015[2] (niveau 5e/4e).
+Le premier tome de la série a obtenu le prix Gulli du roman 2013 ainsi que le prix des Incorruptibles 2015 (niveau 5e/4e).
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Le_Manoir_(s%C3%A9rie_fantastique)</t>
+          <t>Le_Manoir_(série_fantastique)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,22 +527,95 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Série Le Manoir
-Liam et la Carte d'éternité, Bayard Jeunesse, 2013, 367 p.  (ISBN 978-2-7470-4497-4)[3]
-Cléa et la Porte des fantômes, Bayard Jeunesse, 2013, 386 p.  (ISBN 978-2-7470-4721-0)[4]
-Alisande et le Cercle de feu, Bayard Jeunesse, 2014, 403 p.  (ISBN 978-2-7470-4722-7)[5]
-Nic et le Pacte des démons, Bayard Jeunesse, 2014, 430 p.  (ISBN 978-2-7470-5321-1)[6]
-Lou et l'Île maudite, Bayard Jeunesse, 2015, 453 p.  (ISBN 978-2-7470-5337-2)[7]
-Alec et le Strigoï, Bayard Jeunesse, 2015, 440 p.  (ISBN 978-2-7470-5853-7)[8]
-Série Le Manoir - Saison 2 : L'Exil
-Le Collège de la délivrance, Bayard Jeunesse, 2016, 450 p.  (ISBN 978-2-7470-5854-4)[9]
-L'Antre des secrets, Bayard Jeunesse, 2016, 450 p.  (ISBN 978-2747068291)[10]
-Le Paquebot de la dernière chance, Bayard Jeunesse, 2017, 460 p.  (ISBN 978-2747072854)[11]
-Le Phare des brumes, Bayard Jeunesse, 2018, 480 p.  (ISBN 978-2747072861)[12]
-La Forteresse de l'oubli, Bayard Jeunesse, 2018, 400 p.  (ISBN 978-2747096607)[13]
-Le Château de la révélation, Bayard Jeunesse, 2019, 400 p.  (ISBN 978-2747096614)[14]
-Adaptation en bande dessinée
-1 Liam et la carte d'éternité, Bayard, coll « Bande d'ados », 2022Scénario : Stéphane Melchior, d'après Évelyne Brisou-Pellen - Dessin et couleurs : Raphaël Beuchot - (ISBN 979-1036327001)</t>
+          <t>Série Le Manoir</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Liam et la Carte d'éternité, Bayard Jeunesse, 2013, 367 p.  (ISBN 978-2-7470-4497-4)
+Cléa et la Porte des fantômes, Bayard Jeunesse, 2013, 386 p.  (ISBN 978-2-7470-4721-0)
+Alisande et le Cercle de feu, Bayard Jeunesse, 2014, 403 p.  (ISBN 978-2-7470-4722-7)
+Nic et le Pacte des démons, Bayard Jeunesse, 2014, 430 p.  (ISBN 978-2-7470-5321-1)
+Lou et l'Île maudite, Bayard Jeunesse, 2015, 453 p.  (ISBN 978-2-7470-5337-2)
+Alec et le Strigoï, Bayard Jeunesse, 2015, 440 p.  (ISBN 978-2-7470-5853-7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Le_Manoir_(série_fantastique)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Manoir_(s%C3%A9rie_fantastique)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Parution</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Série Le Manoir - Saison 2 : L'Exil</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le Collège de la délivrance, Bayard Jeunesse, 2016, 450 p.  (ISBN 978-2-7470-5854-4)
+L'Antre des secrets, Bayard Jeunesse, 2016, 450 p.  (ISBN 978-2747068291)
+Le Paquebot de la dernière chance, Bayard Jeunesse, 2017, 460 p.  (ISBN 978-2747072854)
+Le Phare des brumes, Bayard Jeunesse, 2018, 480 p.  (ISBN 978-2747072861)
+La Forteresse de l'oubli, Bayard Jeunesse, 2018, 400 p.  (ISBN 978-2747096607)
+Le Château de la révélation, Bayard Jeunesse, 2019, 400 p.  (ISBN 978-2747096614)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Le_Manoir_(série_fantastique)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Manoir_(s%C3%A9rie_fantastique)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Parution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Adaptation en bande dessinée</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1 Liam et la carte d'éternité, Bayard, coll « Bande d'ados », 2022Scénario : Stéphane Melchior, d'après Évelyne Brisou-Pellen - Dessin et couleurs : Raphaël Beuchot - (ISBN 979-1036327001)</t>
         </is>
       </c>
     </row>
